--- a/EastIPSystem.Win/Template/外代交换案件.xlsx
+++ b/EastIPSystem.Win/Template/外代交换案件.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="3" r:id="rId1"/>
+    <sheet name="全部" sheetId="3" r:id="rId1"/>
+    <sheet name="申请人指定" sheetId="5" r:id="rId2"/>
+    <sheet name="新申请" sheetId="6" r:id="rId3"/>
+    <sheet name="特殊案" sheetId="7" r:id="rId4"/>
+    <sheet name="转入案" sheetId="8" r:id="rId5"/>
+    <sheet name="分案" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>外所名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,12 +45,20 @@
     <t>汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="64"/>
@@ -75,6 +88,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +118,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +129,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,11 +482,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -479,10 +502,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6">
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="3" t="s">
@@ -506,4 +529,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="25" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="25" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="25" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="25" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="25" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>